--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.18832647144761</v>
+        <v>131.6365463073605</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9773559245361</v>
+        <v>180.1109300522093</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2861837100251</v>
+        <v>162.9213956753548</v>
       </c>
       <c r="AD2" t="n">
-        <v>97188.32647144761</v>
+        <v>131636.5463073605</v>
       </c>
       <c r="AE2" t="n">
-        <v>132977.3559245362</v>
+        <v>180110.9300522093</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.641905531261451e-06</v>
+        <v>5.250405604365922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.346354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>120286.1837100251</v>
+        <v>162921.3956753548</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.54286364546465</v>
+        <v>120.0763348273982</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.0435199244738</v>
+        <v>164.2937387047962</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.8730506545244</v>
+        <v>148.6137748705664</v>
       </c>
       <c r="AD3" t="n">
-        <v>85542.86364546465</v>
+        <v>120076.3348273982</v>
       </c>
       <c r="AE3" t="n">
-        <v>117043.5199244738</v>
+        <v>164293.7387047962</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.913810762623105e-06</v>
+        <v>5.642401700459923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105873.0506545244</v>
+        <v>148613.7748705664</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.78613483628432</v>
+        <v>116.455829056296</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.2716419494635</v>
+        <v>159.3400029833349</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.4611554195839</v>
+        <v>144.132816733748</v>
       </c>
       <c r="AD2" t="n">
-        <v>82786.13483628431</v>
+        <v>116455.829056296</v>
       </c>
       <c r="AE2" t="n">
-        <v>113271.6419494635</v>
+        <v>159340.0029833349</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066023051696708e-06</v>
+        <v>5.952504788154455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>102461.1554195839</v>
+        <v>144132.816733748</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.57088591876821</v>
+        <v>116.2405801387799</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.9771288844061</v>
+        <v>159.0454899182776</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.1947502681037</v>
+        <v>143.8664115822679</v>
       </c>
       <c r="AD3" t="n">
-        <v>82570.88591876821</v>
+        <v>116240.5801387799</v>
       </c>
       <c r="AE3" t="n">
-        <v>112977.1288844061</v>
+        <v>159045.4899182775</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.10673398978781e-06</v>
+        <v>6.012104070016968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>102194.7502681037</v>
+        <v>143866.4115822679</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.5361189566181</v>
+        <v>114.2018809186736</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3518503747823</v>
+        <v>156.2560517042677</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.48809483027216</v>
+        <v>141.3431934364012</v>
       </c>
       <c r="AD2" t="n">
-        <v>75536.1189566181</v>
+        <v>114201.8809186736</v>
       </c>
       <c r="AE2" t="n">
-        <v>103351.8503747823</v>
+        <v>156256.0517042677</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.390460496830813e-06</v>
+        <v>6.792584315934916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93488.09483027217</v>
+        <v>141343.1934364011</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.88891036248414</v>
+        <v>109.974772409462</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5710433741178</v>
+        <v>150.4723353551015</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.40005256791781</v>
+        <v>136.1114668581007</v>
       </c>
       <c r="AD2" t="n">
-        <v>77888.91036248414</v>
+        <v>109974.772409462</v>
       </c>
       <c r="AE2" t="n">
-        <v>106571.0433741178</v>
+        <v>150472.3353551015</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.359228902550943e-06</v>
+        <v>6.588076347472072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>96400.05256791781</v>
+        <v>136111.4668581007</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.74278710252689</v>
+        <v>112.0633745056627</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.8440875508839</v>
+        <v>153.3300528857432</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.169844809219</v>
+        <v>138.6964478384506</v>
       </c>
       <c r="AD2" t="n">
-        <v>81742.78710252688</v>
+        <v>112063.3745056627</v>
       </c>
       <c r="AE2" t="n">
-        <v>111844.0875508839</v>
+        <v>153330.0528857432</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.280838725459073e-06</v>
+        <v>6.765814194181293e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>101169.844809219</v>
+        <v>138696.4478384506</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.43426181396622</v>
+        <v>117.3309924237271</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1584378736717</v>
+        <v>160.5374401121364</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2633167854118</v>
+        <v>145.2159721435906</v>
       </c>
       <c r="AD2" t="n">
-        <v>83434.26181396622</v>
+        <v>117330.9924237271</v>
       </c>
       <c r="AE2" t="n">
-        <v>114158.4378736717</v>
+        <v>160537.4401121364</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035528506954917e-06</v>
+        <v>5.883341678788889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103263.3167854118</v>
+        <v>145215.9721435907</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.48068854788231</v>
+        <v>117.3774191576432</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.2219609792187</v>
+        <v>160.6009632176833</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.3207773349206</v>
+        <v>145.2734326930994</v>
       </c>
       <c r="AD3" t="n">
-        <v>83480.68854788231</v>
+        <v>117377.4191576432</v>
       </c>
       <c r="AE3" t="n">
-        <v>114221.9609792187</v>
+        <v>160600.9632176833</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041199812182251e-06</v>
+        <v>5.891609796920035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>103320.7773349206</v>
+        <v>145273.4326930994</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.03878927517266</v>
+        <v>118.1302583258195</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8808466653062</v>
+        <v>161.6310309805018</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2985342818435</v>
+        <v>146.205192234344</v>
       </c>
       <c r="AD2" t="n">
-        <v>81038.78927517266</v>
+        <v>118130.2583258195</v>
       </c>
       <c r="AE2" t="n">
-        <v>110880.8466653062</v>
+        <v>161631.0309805018</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.141577316535113e-06</v>
+        <v>6.635779707984047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>100298.5342818435</v>
+        <v>146205.192234344</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.26398557779729</v>
+        <v>113.1968368656885</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.820726064631</v>
+        <v>154.8809060915598</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.33959010340782</v>
+        <v>140.0992897909407</v>
       </c>
       <c r="AD2" t="n">
-        <v>80263.98557779728</v>
+        <v>113196.8368656885</v>
       </c>
       <c r="AE2" t="n">
-        <v>109820.726064631</v>
+        <v>154880.9060915598</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239418424647015e-06</v>
+        <v>6.294871607622465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>99339.59010340781</v>
+        <v>140099.2897909407</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.90996818569994</v>
+        <v>115.3439926722863</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.07283208439</v>
+        <v>157.8187393919742</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3767582854924</v>
+        <v>142.7567404044395</v>
       </c>
       <c r="AD2" t="n">
-        <v>81909.96818569994</v>
+        <v>115343.9926722863</v>
       </c>
       <c r="AE2" t="n">
-        <v>112072.83208439</v>
+        <v>157818.7393919742</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127800819164201e-06</v>
+        <v>6.069693669936407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>101376.7582854924</v>
+        <v>142756.7404044394</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.44343520319332</v>
+        <v>129.686164690489</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.589918712142</v>
+        <v>177.4423318792428</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1266001543919</v>
+        <v>160.5074847666144</v>
       </c>
       <c r="AD2" t="n">
-        <v>95443.43520319332</v>
+        <v>129686.164690489</v>
       </c>
       <c r="AE2" t="n">
-        <v>130589.918712142</v>
+        <v>177442.3318792428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.758473007086087e-06</v>
+        <v>5.437655413696343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.151041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>118126.6001543919</v>
+        <v>160507.4847666144</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.12070183024015</v>
+        <v>118.4486826635564</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.0976553875335</v>
+        <v>162.0667132072835</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1128966979509</v>
+        <v>146.5992935608857</v>
       </c>
       <c r="AD3" t="n">
-        <v>84120.70183024016</v>
+        <v>118448.6826635564</v>
       </c>
       <c r="AE3" t="n">
-        <v>115097.6553875335</v>
+        <v>162066.7132072835</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.016740974576471e-06</v>
+        <v>5.811310408413794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>104112.8966979509</v>
+        <v>146599.2935608856</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.59222590020494</v>
+        <v>110.9754628330002</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.5333507209186</v>
+        <v>151.8415241399315</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.27051865214708</v>
+        <v>137.3499821869754</v>
       </c>
       <c r="AD2" t="n">
-        <v>78592.22590020494</v>
+        <v>110975.4628330002</v>
       </c>
       <c r="AE2" t="n">
-        <v>107533.3507209186</v>
+        <v>151841.5241399315</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.336870464878371e-06</v>
+        <v>6.512611650169851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>97270.51865214708</v>
+        <v>137349.9821869754</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.33416618614088</v>
+        <v>107.7669341544622</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4437738015738</v>
+        <v>147.4514736516628</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.47580661773517</v>
+        <v>133.3789119558311</v>
       </c>
       <c r="AD2" t="n">
-        <v>76334.16618614088</v>
+        <v>107766.9341544622</v>
       </c>
       <c r="AE2" t="n">
-        <v>104443.7738015738</v>
+        <v>147451.4736516628</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.395270346878364e-06</v>
+        <v>6.74123160498095e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>94475.80661773517</v>
+        <v>133378.9119558311</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.45084055419564</v>
+        <v>113.0386295685403</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.8128775205703</v>
+        <v>154.6644398879884</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.0461748239041</v>
+        <v>139.9034828180259</v>
       </c>
       <c r="AD2" t="n">
-        <v>82450.84055419563</v>
+        <v>113038.6295685403</v>
       </c>
       <c r="AE2" t="n">
-        <v>112812.8775205703</v>
+        <v>154664.4398879884</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.372153300532756e-06</v>
+        <v>6.831403289760335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>102046.1748239041</v>
+        <v>139903.4828180259</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.06783386143283</v>
+        <v>131.6476891072772</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4982955677839</v>
+        <v>180.1261761226408</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9981073592461</v>
+        <v>162.9351866822225</v>
       </c>
       <c r="AD2" t="n">
-        <v>88067.83386143282</v>
+        <v>131647.6891072772</v>
       </c>
       <c r="AE2" t="n">
-        <v>120498.2955677839</v>
+        <v>180126.1761226408</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857011159066254e-06</v>
+        <v>6.285679031013767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>108998.1073592461</v>
+        <v>162935.1866822224</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.88537829772949</v>
+        <v>114.0741608546138</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.6709429979539</v>
+        <v>156.0812994780096</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.1086635259016</v>
+        <v>141.1851193173508</v>
       </c>
       <c r="AD2" t="n">
-        <v>80885.37829772949</v>
+        <v>114074.1608546138</v>
       </c>
       <c r="AE2" t="n">
-        <v>110670.9429979539</v>
+        <v>156081.2994780096</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.211402334093732e-06</v>
+        <v>6.221844969547325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>100108.6635259016</v>
+        <v>141185.1193173508</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.91928405695008</v>
+        <v>119.0352154197762</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1903108210788</v>
+        <v>162.869233200342</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1012706304706</v>
+        <v>147.3252221721507</v>
       </c>
       <c r="AD2" t="n">
-        <v>84919.28405695007</v>
+        <v>119035.2154197762</v>
       </c>
       <c r="AE2" t="n">
-        <v>116190.3108210788</v>
+        <v>162869.233200342</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.915708690596185e-06</v>
+        <v>5.686270834712256e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>105101.2706304705</v>
+        <v>147325.2221721507</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.13103598488851</v>
+        <v>118.2469673477146</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.1117950338341</v>
+        <v>161.7907174130973</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1256868762537</v>
+        <v>146.3496384179339</v>
       </c>
       <c r="AD3" t="n">
-        <v>84131.03598488851</v>
+        <v>118246.9673477146</v>
       </c>
       <c r="AE3" t="n">
-        <v>115111.7950338341</v>
+        <v>161790.7174130973</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.002324297787569e-06</v>
+        <v>5.81205133574546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>104125.6868762537</v>
+        <v>146349.6384179339</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2839966060409</v>
+        <v>152.8927290815863</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.8954295428691</v>
+        <v>209.1945770804909</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4941815304043</v>
+        <v>189.2293402504215</v>
       </c>
       <c r="AD2" t="n">
-        <v>110283.9966060409</v>
+        <v>152892.7290815864</v>
       </c>
       <c r="AE2" t="n">
-        <v>150895.4295428691</v>
+        <v>209194.5770804909</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268340157499906e-06</v>
+        <v>5.448128317977487e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>136494.1815304043</v>
+        <v>189229.3402504215</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.15645085828726</v>
+        <v>108.9266147615503</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.5688599666434</v>
+        <v>149.0381998197775</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.4935161382792</v>
+        <v>134.8142032054457</v>
       </c>
       <c r="AD2" t="n">
-        <v>77156.45085828725</v>
+        <v>108926.6147615503</v>
       </c>
       <c r="AE2" t="n">
-        <v>105568.8599666434</v>
+        <v>149038.1998197775</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.376537668744778e-06</v>
+        <v>6.660681658277752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95493.5161382792</v>
+        <v>134814.2032054457</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.46192653505001</v>
+        <v>112.1268111471743</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.7233134979971</v>
+        <v>153.4168496972864</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.34691305190483</v>
+        <v>138.7749608841202</v>
       </c>
       <c r="AD2" t="n">
-        <v>79461.92653505001</v>
+        <v>112126.8111471743</v>
       </c>
       <c r="AE2" t="n">
-        <v>108723.3134979971</v>
+        <v>153416.8496972864</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283826724883218e-06</v>
+        <v>6.395370728912622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.643229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98346.91305190483</v>
+        <v>138774.9608841202</v>
       </c>
     </row>
   </sheetData>
